--- a/specsheet.xlsx
+++ b/specsheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="233">
   <si>
     <t>Control Valve Specification Sheet</t>
   </si>
@@ -613,7 +613,10 @@
     <t>Liquid/Acetic Acid</t>
   </si>
   <si>
-    <t>Q240000</t>
+    <t>Q2400006</t>
+  </si>
+  <si>
+    <t>FV-3042</t>
   </si>
   <si>
     <t>4.0 inch</t>
@@ -646,7 +649,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>Project Test</t>
+    <t>asda</t>
   </si>
   <si>
     <t>221.0 bar</t>
@@ -698,9 +701,6 @@
   </si>
   <si>
     <t>17-4PH</t>
-  </si>
-  <si>
-    <t>N1-MPI - Body / Bonnet as per ASME B16.34 at Foundry</t>
   </si>
   <si>
     <t>/None</t>
@@ -1248,7 +1248,7 @@
         <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1300,7 +1300,7 @@
         <v>184</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1321,7 +1321,7 @@
         <v>185</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>187</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E11" s="2">
         <v>100</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2">
         <v>9</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E14" s="2">
         <v>30</v>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E20" s="2">
         <v>80</v>
@@ -1634,10 +1634,10 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2">
-        <v>42.92</v>
+        <v>45.65</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1657,10 +1657,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E22" s="2">
-        <v>3.384</v>
+        <v>3.023</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1680,10 +1680,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E23" s="2">
-        <v>3.384</v>
+        <v>3.023</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1766,10 +1766,10 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7" t="s">
@@ -1793,10 +1793,10 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="7" t="s">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1876,10 +1876,10 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="7" t="s">
@@ -1890,11 +1890,11 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M31" s="4"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="7" t="s">
@@ -1984,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2184,10 +2184,10 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="7" t="s">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2312,7 +2312,7 @@
         <v>4.375</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="7" t="s">
@@ -2339,7 +2339,7 @@
         <v>118.878</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="7" t="s">
@@ -2365,10 +2365,10 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="7" t="s">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2541,9 +2541,6 @@
     <row r="58" spans="1:13">
       <c r="A58" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>191</v>

--- a/specsheet.xlsx
+++ b/specsheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="230">
   <si>
     <t>Control Valve Specification Sheet</t>
   </si>
@@ -610,13 +610,13 @@
     <t>Test Customer Test Address</t>
   </si>
   <si>
-    <t>Liquid/Acetic Acid</t>
-  </si>
-  <si>
-    <t>Q2400006</t>
-  </si>
-  <si>
-    <t>FV-3042</t>
+    <t>Liquid/None</t>
+  </si>
+  <si>
+    <t>Q240000</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>4.0 inch</t>
@@ -646,18 +646,9 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>asda</t>
-  </si>
-  <si>
     <t>221.0 bar</t>
   </si>
   <si>
-    <t>6.0 inch</t>
-  </si>
-  <si>
     <t>ASME ASME 150</t>
   </si>
   <si>
@@ -673,7 +664,7 @@
     <t>Standard for Service</t>
   </si>
   <si>
-    <t>Ported</t>
+    <t>Microspline</t>
   </si>
   <si>
     <t>Over</t>
@@ -847,49 +838,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>990429</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="571500"/>
-          <a:ext cx="1371429" cy="604762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,7 +1196,7 @@
         <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1258,7 +1206,7 @@
         <v>182</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1300,7 +1248,7 @@
         <v>184</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1321,7 +1269,7 @@
         <v>185</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -1361,7 +1309,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>187</v>
@@ -1591,7 +1539,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>118.878</v>
+        <v>109.674</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1637,7 +1585,7 @@
         <v>206</v>
       </c>
       <c r="E21" s="2">
-        <v>45.65</v>
+        <v>45.88</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1683,7 +1631,7 @@
         <v>207</v>
       </c>
       <c r="E23" s="2">
-        <v>3.023</v>
+        <v>3.384</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1705,7 +1653,9 @@
       <c r="D24" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>87.959</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1796,7 +1746,7 @@
         <v>200</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="7" t="s">
@@ -1809,7 +1759,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M28" s="4"/>
     </row>
@@ -1832,11 +1782,11 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M29" s="4"/>
     </row>
@@ -1861,7 +1811,7 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1890,11 +1840,11 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M31" s="4"/>
     </row>
@@ -1955,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="7" t="s">
@@ -1984,7 +1934,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2009,7 +1959,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2034,7 +1984,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2059,7 +2009,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2096,7 +2046,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M39" s="4"/>
     </row>
@@ -2109,7 +2059,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2134,7 +2084,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2158,9 +2108,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="7" t="s">
@@ -2184,10 +2132,10 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="7" t="s">
@@ -2211,7 +2159,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2236,7 +2184,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2261,7 +2209,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2308,11 +2256,9 @@
         <v>103</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3">
-        <v>4.375</v>
-      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="7" t="s">
@@ -2336,10 +2282,10 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>118.878</v>
+        <v>224</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="7" t="s">
@@ -2350,7 +2296,7 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2365,10 +2311,10 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="7" t="s">
@@ -2392,7 +2338,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2417,7 +2363,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2442,7 +2388,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2490,7 +2436,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2957,6 +2903,5 @@
   <pageMargins left="0.36" right="0.2" top="0.4" bottom="0.01" header="0.2" footer="0.28"/>
   <pageSetup paperSize="9" fitToWidth="2" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>